--- a/download/refund_order.xlsx
+++ b/download/refund_order.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,93 +560,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>20200229000034</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2950</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2020-02-29 16:30:15</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>98</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C36InsZhy-back-2</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>206</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>C36InsZhy-back-2-1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>36所智慧园</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>大树银河湾</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>36所智慧园</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>越秀南路吉杨路</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>11834</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>李锐琦</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>15712612950</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0D1994</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>10</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>买了两个下班</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/download/refund_order.xlsx
+++ b/download/refund_order.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,93 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20200229000034</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2950</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2020-02-29 16:30:15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C36InsZhy-back-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>206</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C36InsZhy-back-2-1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>36所智慧园</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>大树银河湾</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>36所智慧园</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>越秀南路吉杨路</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>11834</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>李锐琦</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>15712612950</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0D1994</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>买了两个下班</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
